--- a/Documentazione prodotta/Gantt.xlsx
+++ b/Documentazione prodotta/Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertodigirolamo/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/Università/Project Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07083a6163ddf17c/UNI Magistrale/Project Management/Project-Management-Project/Documentazione prodotta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8BE659-8311-6645-93BA-CC207F502121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{371B203E-1FB0-4067-8087-AE056CC318F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223E7F9F-E630-48AB-9476-D32EE78E3EF0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{5ACF5D51-F703-43D1-A714-656C62429C8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5ACF5D51-F703-43D1-A714-656C62429C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,8 +537,801 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129404</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>128138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222444</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Graphic 34" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF02577D-E67D-0BD3-4F64-55E3C5CCFD98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11638636">
+          <a:off x="12941936" y="10416746"/>
+          <a:ext cx="527090" cy="528386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>223336</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>165318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>208404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Graphic 38" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C080059-139B-3844-9A33-88EF849AB131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11638636">
+          <a:off x="21663405" y="3158994"/>
+          <a:ext cx="374135" cy="374341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>247929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>164034</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED930A3-7A69-624A-91F3-3B8C4B5207C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="23848762" y="3924703"/>
+          <a:ext cx="348258" cy="348450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>229306</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>145411</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCC8741-82B8-DE41-BBA2-40F621CBBF31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="24694445" y="4180416"/>
+          <a:ext cx="348258" cy="348450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>220486</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>136591</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>198519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBDA770-1B3A-E945-BD2A-FFA7CA47731E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="23821319" y="4965347"/>
+          <a:ext cx="348258" cy="348450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>154231</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphic 42" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7886F982-790B-294E-B0C4-B0208C9BAA27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="24703265" y="5212293"/>
+          <a:ext cx="348258" cy="348450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>229305</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>145411</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Graphic 43" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2F710D-5CAC-7943-A8E4-9FA7FC83995F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="25539529" y="6578150"/>
+          <a:ext cx="297106" cy="342307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>229122</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>145227</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Graphic 44" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BC2CFB-363E-6448-881F-15C5A476AD1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="26682346" y="6830386"/>
+          <a:ext cx="297105" cy="342306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>229306</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>145411</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>189700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Graphic 45" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AD44BD-2F45-194D-9CBA-B4E353DFE385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="32041042" y="7769931"/>
+          <a:ext cx="348258" cy="348450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>235876</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>151982</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Graphic 46" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE61AD44-F541-8C44-8671-77036C48A628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11339695">
+          <a:off x="28975100" y="7841824"/>
+          <a:ext cx="297106" cy="342308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>149574</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>189060</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Graphic 47" descr="Line arrow: Anti-clockwise curve outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FD8F89-1D01-6246-82FD-5F3D35CE1C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="8677968">
+          <a:off x="28888798" y="7632589"/>
+          <a:ext cx="1182486" cy="1024290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66937</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>82903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228824</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Elemento grafico 9" descr="Freccia linea: curva oraria con riempimento a tinta unita">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC879A04-AF31-BCF7-B06A-CE9176DF035E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1799621">
+          <a:off x="13567589" y="10767468"/>
+          <a:ext cx="542887" cy="542887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>333355</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>153864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Figura a mano libera: forma 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A0C031-CACE-0A74-9448-0C0F292701DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32499280" y="9296399"/>
+          <a:ext cx="1228745" cy="5487865"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1166832 w 1190645"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 5262562"/>
+            <a:gd name="connsiteX1" fmla="*/ 20 w 1190645"/>
+            <a:gd name="connsiteY1" fmla="*/ 2667000 h 5262562"/>
+            <a:gd name="connsiteX2" fmla="*/ 1190645 w 1190645"/>
+            <a:gd name="connsiteY2" fmla="*/ 5262562 h 5262562"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1190645" h="5262562">
+              <a:moveTo>
+                <a:pt x="1166832" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="581441" y="894953"/>
+                <a:pt x="-3949" y="1789906"/>
+                <a:pt x="20" y="2667000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3989" y="3544094"/>
+                <a:pt x="980301" y="4833937"/>
+                <a:pt x="1190645" y="5262562"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>263036</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>100382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>34436</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>18321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Elemento grafico 27" descr="Accento circonflesso verso l'alto contorno">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2B39A4-58C3-52F2-F9EA-B5598E6E953F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="8243012">
+          <a:off x="33190961" y="14235482"/>
+          <a:ext cx="914400" cy="908539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,20 +1649,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3668A5F-3285-4F44-8F63-0D3B0D436EAF}">
   <dimension ref="A4:GC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="AM37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ45" sqref="AZ45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="102" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.1640625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="5.6640625" style="3"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="5.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="DM4"/>
       <c r="DN4"/>
       <c r="DO4"/>
@@ -936,7 +1729,7 @@
       <c r="FX4"/>
       <c r="FY4"/>
     </row>
-    <row r="5" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="DM5"/>
       <c r="DN5"/>
       <c r="DO5"/>
@@ -1003,7 +1796,7 @@
       <c r="FX5"/>
       <c r="FY5"/>
     </row>
-    <row r="6" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1193,7 +1986,7 @@
       <c r="FX6"/>
       <c r="FY6"/>
     </row>
-    <row r="7" spans="1:185" s="5" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:185" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +2510,7 @@
       <c r="GB7"/>
       <c r="GC7"/>
     </row>
-    <row r="8" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1900,7 +2693,7 @@
       <c r="FX8"/>
       <c r="FY8"/>
     </row>
-    <row r="9" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +2768,7 @@
       <c r="FX9"/>
       <c r="FY9"/>
     </row>
-    <row r="10" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2850,7 @@
       <c r="FX10"/>
       <c r="FY10"/>
     </row>
-    <row r="11" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +2932,7 @@
       <c r="FX11"/>
       <c r="FY11"/>
     </row>
-    <row r="12" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +3014,7 @@
       <c r="FX12"/>
       <c r="FY12"/>
     </row>
-    <row r="13" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +3096,7 @@
       <c r="FX13"/>
       <c r="FY13"/>
     </row>
-    <row r="14" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +3178,7 @@
       <c r="FX14"/>
       <c r="FY14"/>
     </row>
-    <row r="15" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
@@ -2460,7 +3253,7 @@
       <c r="FX15"/>
       <c r="FY15"/>
     </row>
-    <row r="16" spans="1:185" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
@@ -2542,7 +3335,7 @@
       <c r="FX16"/>
       <c r="FY16"/>
     </row>
-    <row r="17" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -2625,7 +3418,7 @@
       <c r="FX17"/>
       <c r="FY17"/>
     </row>
-    <row r="18" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2709,7 +3502,7 @@
       <c r="FX18"/>
       <c r="FY18"/>
     </row>
-    <row r="19" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -2784,7 +3577,7 @@
       <c r="FX19"/>
       <c r="FY19"/>
     </row>
-    <row r="20" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
@@ -2866,7 +3659,7 @@
       <c r="FX20"/>
       <c r="FY20"/>
     </row>
-    <row r="21" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
@@ -2949,7 +3742,7 @@
       <c r="FX21"/>
       <c r="FY21"/>
     </row>
-    <row r="22" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
@@ -3032,7 +3825,7 @@
       <c r="FX22"/>
       <c r="FY22"/>
     </row>
-    <row r="23" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
@@ -3107,7 +3900,7 @@
       <c r="FX23"/>
       <c r="FY23"/>
     </row>
-    <row r="24" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
@@ -3191,7 +3984,7 @@
       <c r="FX24"/>
       <c r="FY24"/>
     </row>
-    <row r="25" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -3275,7 +4068,7 @@
       <c r="FX25"/>
       <c r="FY25"/>
     </row>
-    <row r="26" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
@@ -3350,7 +4143,7 @@
       <c r="FX26"/>
       <c r="FY26"/>
     </row>
-    <row r="27" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -3432,7 +4225,7 @@
       <c r="FX27"/>
       <c r="FY27"/>
     </row>
-    <row r="28" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -3516,7 +4309,7 @@
       <c r="FX28"/>
       <c r="FY28"/>
     </row>
-    <row r="29" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -3598,7 +4391,7 @@
       <c r="FX29"/>
       <c r="FY29"/>
     </row>
-    <row r="30" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
@@ -3673,7 +4466,7 @@
       <c r="FX30"/>
       <c r="FY30"/>
     </row>
-    <row r="31" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -3757,7 +4550,7 @@
       <c r="FX31"/>
       <c r="FY31"/>
     </row>
-    <row r="32" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -3840,7 +4633,7 @@
       <c r="FX32"/>
       <c r="FY32"/>
     </row>
-    <row r="33" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>28</v>
       </c>
@@ -3923,7 +4716,7 @@
       <c r="FX33"/>
       <c r="FY33"/>
     </row>
-    <row r="34" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -4006,7 +4799,7 @@
       <c r="FX34"/>
       <c r="FY34"/>
     </row>
-    <row r="35" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>30</v>
       </c>
@@ -4081,7 +4874,7 @@
       <c r="FX35"/>
       <c r="FY35"/>
     </row>
-    <row r="36" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
@@ -4166,7 +4959,7 @@
       <c r="FX36"/>
       <c r="FY36"/>
     </row>
-    <row r="37" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>32</v>
       </c>
@@ -4241,7 +5034,7 @@
       <c r="FX37"/>
       <c r="FY37"/>
     </row>
-    <row r="38" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -4326,7 +5119,7 @@
       <c r="FX38"/>
       <c r="FY38"/>
     </row>
-    <row r="39" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>34</v>
       </c>
@@ -4401,7 +5194,7 @@
       <c r="FX39"/>
       <c r="FY39"/>
     </row>
-    <row r="40" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>35</v>
       </c>
@@ -4489,7 +5282,7 @@
       <c r="FX40"/>
       <c r="FY40"/>
     </row>
-    <row r="41" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>36</v>
       </c>
@@ -4574,7 +5367,7 @@
       <c r="FX41"/>
       <c r="FY41"/>
     </row>
-    <row r="42" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>37</v>
       </c>
@@ -4649,7 +5442,7 @@
       <c r="FX42"/>
       <c r="FY42"/>
     </row>
-    <row r="43" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>38</v>
       </c>
@@ -4733,7 +5526,7 @@
       <c r="FX43"/>
       <c r="FY43"/>
     </row>
-    <row r="44" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>39</v>
       </c>
@@ -4816,7 +5609,7 @@
       <c r="FX44"/>
       <c r="FY44"/>
     </row>
-    <row r="45" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
@@ -4891,7 +5684,7 @@
       <c r="FX45"/>
       <c r="FY45"/>
     </row>
-    <row r="46" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>41</v>
       </c>
@@ -4975,7 +5768,7 @@
       <c r="FX46"/>
       <c r="FY46"/>
     </row>
-    <row r="47" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>61</v>
       </c>
@@ -5059,7 +5852,7 @@
       <c r="FX47"/>
       <c r="FY47"/>
     </row>
-    <row r="48" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5134,7 +5927,7 @@
       <c r="FX48"/>
       <c r="FY48"/>
     </row>
-    <row r="49" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>43</v>
       </c>
@@ -5209,7 +6002,7 @@
       <c r="FX49"/>
       <c r="FY49"/>
     </row>
-    <row r="50" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -5295,7 +6088,7 @@
       <c r="FX50"/>
       <c r="FY50"/>
     </row>
-    <row r="51" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
@@ -5370,7 +6163,7 @@
       <c r="FX51"/>
       <c r="FY51"/>
     </row>
-    <row r="52" spans="1:181" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:181" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
@@ -5455,7 +6248,7 @@
       <c r="FX52"/>
       <c r="FY52"/>
     </row>
-    <row r="53" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
@@ -5544,7 +6337,7 @@
       <c r="FX53"/>
       <c r="FY53"/>
     </row>
-    <row r="54" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
@@ -5619,7 +6412,7 @@
       <c r="FX54"/>
       <c r="FY54"/>
     </row>
-    <row r="55" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>49</v>
       </c>
@@ -5704,7 +6497,7 @@
       <c r="FX55"/>
       <c r="FY55"/>
     </row>
-    <row r="56" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -5790,7 +6583,7 @@
       <c r="FX56"/>
       <c r="FY56"/>
     </row>
-    <row r="57" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>51</v>
       </c>
@@ -5865,7 +6658,7 @@
       <c r="FX57"/>
       <c r="FY57"/>
     </row>
-    <row r="58" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -5949,7 +6742,7 @@
       <c r="FX58"/>
       <c r="FY58"/>
     </row>
-    <row r="59" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -6034,7 +6827,7 @@
       <c r="FX59"/>
       <c r="FY59"/>
     </row>
-    <row r="60" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>53</v>
       </c>
@@ -6122,7 +6915,7 @@
       <c r="FX60"/>
       <c r="FY60"/>
     </row>
-    <row r="61" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>54</v>
       </c>
@@ -6197,7 +6990,7 @@
       <c r="FX61"/>
       <c r="FY61"/>
     </row>
-    <row r="62" spans="1:181" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
@@ -6395,5 +7188,6 @@
     <mergeCell ref="CR6:DL6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>